--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Icam4</t>
+  </si>
+  <si>
+    <t>Itgam</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Icam4</t>
-  </si>
-  <si>
-    <t>Itgam</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H2">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I2">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J2">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N2">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O2">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P2">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q2">
-        <v>131.8170602500783</v>
+        <v>187.47180032013</v>
       </c>
       <c r="R2">
-        <v>790.9023615004701</v>
+        <v>1124.83080192078</v>
       </c>
       <c r="S2">
-        <v>0.1918174738372695</v>
+        <v>0.03864193934606794</v>
       </c>
       <c r="T2">
-        <v>0.1451640106132911</v>
+        <v>0.02663943690672269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H3">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I3">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J3">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N3">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O3">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P3">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q3">
-        <v>0.04286969092</v>
+        <v>0.3349294922825</v>
       </c>
       <c r="R3">
-        <v>0.17147876368</v>
+        <v>1.33971796913</v>
       </c>
       <c r="S3">
-        <v>6.238309214951591E-05</v>
+        <v>6.903611691939355E-05</v>
       </c>
       <c r="T3">
-        <v>3.147360063961923E-05</v>
+        <v>3.172862287421148E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H4">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I4">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J4">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N4">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O4">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P4">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q4">
-        <v>0.1349814999083333</v>
+        <v>161.0103403726175</v>
       </c>
       <c r="R4">
-        <v>0.8098889994499999</v>
+        <v>966.062042235705</v>
       </c>
       <c r="S4">
-        <v>0.0001964223013171524</v>
+        <v>0.03318766767131948</v>
       </c>
       <c r="T4">
-        <v>0.0001486488611422329</v>
+        <v>0.0228793066283139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H5">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I5">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J5">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N5">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O5">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P5">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q5">
-        <v>92.5967485969785</v>
+        <v>127.66083440752</v>
       </c>
       <c r="R5">
-        <v>555.580491581871</v>
+        <v>765.96500644512</v>
       </c>
       <c r="S5">
-        <v>0.1347448833081269</v>
+        <v>0.02631362269749387</v>
       </c>
       <c r="T5">
-        <v>0.1019725016669839</v>
+        <v>0.01814039625080368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -797,10 +797,10 @@
         <v>0.534717</v>
       </c>
       <c r="I6">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J6">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N6">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O6">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P6">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q6">
-        <v>22.40448129077</v>
+        <v>32.360403374316</v>
       </c>
       <c r="R6">
-        <v>201.64033161693</v>
+        <v>291.243630368844</v>
       </c>
       <c r="S6">
-        <v>0.03260254018468231</v>
+        <v>0.006670169818976987</v>
       </c>
       <c r="T6">
-        <v>0.03700952312669276</v>
+        <v>0.006897540770084734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>0.534717</v>
       </c>
       <c r="I7">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J7">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N7">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O7">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P7">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q7">
-        <v>0.007286410320000001</v>
+        <v>0.05781378027900001</v>
       </c>
       <c r="R7">
-        <v>0.04371846192</v>
+        <v>0.346882681674</v>
       </c>
       <c r="S7">
-        <v>1.060303437409863E-05</v>
+        <v>1.191665406260109E-05</v>
       </c>
       <c r="T7">
-        <v>8.024185511485378E-06</v>
+        <v>8.215243836414883E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>0.534717</v>
       </c>
       <c r="I8">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J8">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N8">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O8">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P8">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q8">
-        <v>0.02294232995</v>
+        <v>27.792764314401</v>
       </c>
       <c r="R8">
-        <v>0.20648096955</v>
+        <v>250.134878829609</v>
       </c>
       <c r="S8">
-        <v>3.338520648693888E-05</v>
+        <v>0.005728681919428535</v>
       </c>
       <c r="T8">
-        <v>3.789798477568588E-05</v>
+        <v>0.005923959684757452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>0.534717</v>
       </c>
       <c r="I9">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J9">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N9">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O9">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P9">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q9">
-        <v>15.738343106661</v>
+        <v>22.036146713664</v>
       </c>
       <c r="R9">
-        <v>141.645087959949</v>
+        <v>198.325320422976</v>
       </c>
       <c r="S9">
-        <v>0.02290211306015014</v>
+        <v>0.004542120165680332</v>
       </c>
       <c r="T9">
-        <v>0.02599786023262033</v>
+        <v>0.004696950733738463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H10">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I10">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J10">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N10">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O10">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P10">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q10">
-        <v>37.84967399428889</v>
+        <v>139.466725659708</v>
       </c>
       <c r="R10">
-        <v>340.6470659486001</v>
+        <v>1255.200530937372</v>
       </c>
       <c r="S10">
-        <v>0.05507806680997784</v>
+        <v>0.02874706886334016</v>
       </c>
       <c r="T10">
-        <v>0.06252313395920953</v>
+        <v>0.02972699119911362</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1086,14 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H11">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I11">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J11">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N11">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O11">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P11">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q11">
-        <v>0.01230951306666667</v>
+        <v>0.2491655786936667</v>
       </c>
       <c r="R11">
-        <v>0.0738570784</v>
+        <v>1.494993472162</v>
       </c>
       <c r="S11">
-        <v>1.791255013679807E-05</v>
+        <v>5.135834382860377E-05</v>
       </c>
       <c r="T11">
-        <v>1.355589543617503E-05</v>
+        <v>3.540602214094308E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H12">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I12">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J12">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N12">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O12">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P12">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q12">
-        <v>0.03875830455555556</v>
+        <v>119.7811347134797</v>
       </c>
       <c r="R12">
-        <v>0.348824741</v>
+        <v>1078.030212421317</v>
       </c>
       <c r="S12">
-        <v>5.640028730695185E-05</v>
+        <v>0.02468944841036167</v>
       </c>
       <c r="T12">
-        <v>6.402408295840247E-05</v>
+        <v>0.02553105567370577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H13">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I13">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J13">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N13">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O13">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P13">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q13">
-        <v>26.58803603022</v>
+        <v>94.97128922536534</v>
       </c>
       <c r="R13">
-        <v>239.29232427198</v>
+        <v>854.741603028288</v>
       </c>
       <c r="S13">
-        <v>0.03869036296163396</v>
+        <v>0.01957560972689068</v>
       </c>
       <c r="T13">
-        <v>0.04392025513034981</v>
+        <v>0.02024289783542639</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H14">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I14">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J14">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N14">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O14">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P14">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q14">
-        <v>12.197400393695</v>
+        <v>1474.118145052668</v>
       </c>
       <c r="R14">
-        <v>73.18440236217</v>
+        <v>13267.06330547401</v>
       </c>
       <c r="S14">
-        <v>0.01774940608189523</v>
+        <v>0.3038472125023218</v>
       </c>
       <c r="T14">
-        <v>0.01343243095275939</v>
+        <v>0.3142046743920532</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H15">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I15">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J15">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N15">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O15">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P15">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q15">
-        <v>0.00396685212</v>
+        <v>2.633599512267</v>
       </c>
       <c r="R15">
-        <v>0.01586740848</v>
+        <v>15.801597073602</v>
       </c>
       <c r="S15">
-        <v>5.772481583953126E-06</v>
+        <v>0.0005428410696492797</v>
       </c>
       <c r="T15">
-        <v>2.912340087879199E-06</v>
+        <v>0.0003742301931533708</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H16">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I16">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J16">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N16">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O16">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P16">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q16">
-        <v>0.012490214825</v>
+        <v>1266.047820947373</v>
       </c>
       <c r="R16">
-        <v>0.07494128894999999</v>
+        <v>11394.43038852636</v>
       </c>
       <c r="S16">
-        <v>1.817550361744537E-05</v>
+        <v>0.2609594777600093</v>
       </c>
       <c r="T16">
-        <v>1.375489389597055E-05</v>
+        <v>0.2698549941065444</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H17">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I17">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J17">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N17">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O17">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P17">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q17">
-        <v>8.5682355201135</v>
+        <v>1003.815785047872</v>
       </c>
       <c r="R17">
-        <v>51.40941312068099</v>
+        <v>9034.342065430848</v>
       </c>
       <c r="S17">
-        <v>0.0124683200307523</v>
+        <v>0.2069078582176521</v>
       </c>
       <c r="T17">
-        <v>0.009435800112817297</v>
+        <v>0.2139608775247123</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H18">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I18">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J18">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N18">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O18">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P18">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q18">
-        <v>75.94844169847222</v>
+        <v>75.425968082352</v>
       </c>
       <c r="R18">
-        <v>683.5359752862502</v>
+        <v>678.8337127411679</v>
       </c>
       <c r="S18">
-        <v>0.110518609661297</v>
+        <v>0.01554690187420014</v>
       </c>
       <c r="T18">
-        <v>0.1254577409312243</v>
+        <v>0.01607686047523285</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H19">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I19">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J19">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.5</v>
       </c>
       <c r="M19">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N19">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O19">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P19">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q19">
-        <v>0.02470003666666667</v>
+        <v>0.1347529663213333</v>
       </c>
       <c r="R19">
-        <v>0.14820022</v>
+        <v>0.808517797928</v>
       </c>
       <c r="S19">
-        <v>3.594298513484801E-05</v>
+        <v>2.777546245568636E-05</v>
       </c>
       <c r="T19">
-        <v>2.720100401288193E-05</v>
+        <v>1.91481766227293E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1644,13 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H20">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I20">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J20">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N20">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O20">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P20">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q20">
-        <v>0.07777168263888889</v>
+        <v>64.77966698530534</v>
       </c>
       <c r="R20">
-        <v>0.6999451437500001</v>
+        <v>583.017002867748</v>
       </c>
       <c r="S20">
-        <v>0.0001131717523631895</v>
+        <v>0.01335247198901447</v>
       </c>
       <c r="T20">
-        <v>0.0001284695168734632</v>
+        <v>0.01380762745554311</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H21">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I21">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J21">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,276 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N21">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O21">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P21">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q21">
-        <v>53.351051441625</v>
+        <v>51.36208221687468</v>
       </c>
       <c r="R21">
-        <v>480.159462974625</v>
+        <v>462.258739951872</v>
       </c>
       <c r="S21">
-        <v>0.07763535231843133</v>
+        <v>0.01058682139032679</v>
       </c>
       <c r="T21">
-        <v>0.08812955526783971</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H22">
-        <v>2.938298</v>
-      </c>
-      <c r="I22">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J22">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>125.6990966666667</v>
-      </c>
-      <c r="N22">
-        <v>377.09729</v>
-      </c>
-      <c r="O22">
-        <v>0.5869187672767672</v>
-      </c>
-      <c r="P22">
-        <v>0.5869561130196213</v>
-      </c>
-      <c r="Q22">
-        <v>123.1138014458245</v>
-      </c>
-      <c r="R22">
-        <v>1108.02421301242</v>
-      </c>
-      <c r="S22">
-        <v>0.1791526707016453</v>
-      </c>
-      <c r="T22">
-        <v>0.2033692734364441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H23">
-        <v>2.938298</v>
-      </c>
-      <c r="I23">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J23">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.5</v>
-      </c>
-      <c r="M23">
-        <v>0.04088</v>
-      </c>
-      <c r="N23">
-        <v>0.08176</v>
-      </c>
-      <c r="O23">
-        <v>0.0001908783741692302</v>
-      </c>
-      <c r="P23">
-        <v>0.0001272603465288341</v>
-      </c>
-      <c r="Q23">
-        <v>0.04003920741333333</v>
-      </c>
-      <c r="R23">
-        <v>0.24023524448</v>
-      </c>
-      <c r="S23">
-        <v>5.826423079001649E-05</v>
-      </c>
-      <c r="T23">
-        <v>4.409332084079328E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H24">
-        <v>2.938298</v>
-      </c>
-      <c r="I24">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J24">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.1287166666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.38615</v>
-      </c>
-      <c r="O24">
-        <v>0.0006010085142322917</v>
-      </c>
-      <c r="P24">
-        <v>0.0006010467565081857</v>
-      </c>
-      <c r="Q24">
-        <v>0.1260693080777778</v>
-      </c>
-      <c r="R24">
-        <v>1.1346237727</v>
-      </c>
-      <c r="S24">
-        <v>0.0001834534631406137</v>
-      </c>
-      <c r="T24">
-        <v>0.0002082514168624306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H25">
-        <v>2.938298</v>
-      </c>
-      <c r="I25">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J25">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>88.299099</v>
-      </c>
-      <c r="N25">
-        <v>264.897297</v>
-      </c>
-      <c r="O25">
-        <v>0.4122893458348313</v>
-      </c>
-      <c r="P25">
-        <v>0.4123155798773419</v>
-      </c>
-      <c r="Q25">
-        <v>86.483021997834</v>
-      </c>
-      <c r="R25">
-        <v>778.3471979805059</v>
-      </c>
-      <c r="S25">
-        <v>0.1258483141557367</v>
-      </c>
-      <c r="T25">
-        <v>0.1428596074667308</v>
+        <v>0.01094770210461956</v>
       </c>
     </row>
   </sheetData>
